--- a/BoxTask/Summary.xlsx
+++ b/BoxTask/Summary.xlsx
@@ -1,38 +1,256 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Main" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Box_Num_1</t>
+  </si>
+  <si>
+    <t>Probability_Estimate_1</t>
+  </si>
+  <si>
+    <t>Decision1</t>
+  </si>
+  <si>
+    <t>Box_Num_2</t>
+  </si>
+  <si>
+    <t>Probability_Estimate_2</t>
+  </si>
+  <si>
+    <t>Decision2</t>
+  </si>
+  <si>
+    <t>Box_Num_3</t>
+  </si>
+  <si>
+    <t>Probability_Estimate_3</t>
+  </si>
+  <si>
+    <t>Decision3</t>
+  </si>
+  <si>
+    <t>Box_Num_4</t>
+  </si>
+  <si>
+    <t>Probability_Estimate_4</t>
+  </si>
+  <si>
+    <t>Decision4</t>
+  </si>
+  <si>
+    <t>Question0</t>
+  </si>
+  <si>
+    <t>Question1</t>
+  </si>
+  <si>
+    <t>Question2</t>
+  </si>
+  <si>
+    <t>Question3</t>
+  </si>
+  <si>
+    <t>Question4</t>
+  </si>
+  <si>
+    <t>Question5</t>
+  </si>
+  <si>
+    <t>Question6</t>
+  </si>
+  <si>
+    <t>Question7</t>
+  </si>
+  <si>
+    <t>Question8</t>
+  </si>
+  <si>
+    <t>Question9</t>
+  </si>
+  <si>
+    <t>Question10</t>
+  </si>
+  <si>
+    <t>Question11</t>
+  </si>
+  <si>
+    <t>Question12</t>
+  </si>
+  <si>
+    <t>Question13</t>
+  </si>
+  <si>
+    <t>Question14</t>
+  </si>
+  <si>
+    <t>Question15</t>
+  </si>
+  <si>
+    <t>Question16</t>
+  </si>
+  <si>
+    <t>Box_Num_5</t>
+  </si>
+  <si>
+    <t>Probability_Estimate_5</t>
+  </si>
+  <si>
+    <t>Decision5</t>
+  </si>
+  <si>
+    <t>Box_Num_6</t>
+  </si>
+  <si>
+    <t>Probability_Estimate_6</t>
+  </si>
+  <si>
+    <t>Decision6</t>
+  </si>
+  <si>
+    <t>Box_Num_7</t>
+  </si>
+  <si>
+    <t>Probability_Estimate_7</t>
+  </si>
+  <si>
+    <t>Decision7</t>
+  </si>
+  <si>
+    <t>Question17</t>
+  </si>
+  <si>
+    <t>Question18</t>
+  </si>
+  <si>
+    <t>Question19</t>
+  </si>
+  <si>
+    <t>Question20</t>
+  </si>
+  <si>
+    <t>Question21</t>
+  </si>
+  <si>
+    <t>Question22</t>
+  </si>
+  <si>
+    <t>Question23</t>
+  </si>
+  <si>
+    <t>Question24</t>
+  </si>
+  <si>
+    <t>Box_Num_8</t>
+  </si>
+  <si>
+    <t>Probability_Estimate_8</t>
+  </si>
+  <si>
+    <t>Decision8</t>
+  </si>
+  <si>
+    <t>Box_Num_9</t>
+  </si>
+  <si>
+    <t>Probability_Estimate_9</t>
+  </si>
+  <si>
+    <t>Decision9</t>
+  </si>
+  <si>
+    <t>Box_Num_10</t>
+  </si>
+  <si>
+    <t>Probability_Estimate_10</t>
+  </si>
+  <si>
+    <t>Decision10</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>#0000FF</t>
+  </si>
+  <si>
+    <t>#FFD700</t>
+  </si>
+  <si>
+    <t>#800080</t>
+  </si>
+  <si>
+    <t>#00BFFF</t>
+  </si>
+  <si>
+    <t>#FFFF00</t>
+  </si>
+  <si>
+    <t>#BA55D3</t>
+  </si>
+  <si>
+    <t>#FF4500</t>
+  </si>
+  <si>
+    <t>#FF69B4</t>
+  </si>
+  <si>
+    <t>#87CEFA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +258,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -339,13 +566,393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:BG3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:59">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59">
+      <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>